--- a/dictors.xlsx
+++ b/dictors.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\PycharmProjects\intonation_corpora\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\Documents\GitHub\curswork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411FADC4-BE22-4452-8B31-265913B4AF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C29E968-C0AA-412F-85C9-D53BCCAD3A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>КГМ</t>
   </si>
@@ -79,6 +79,21 @@
   </si>
   <si>
     <t>м</t>
+  </si>
+  <si>
+    <t>СНС</t>
+  </si>
+  <si>
+    <t>ШГН</t>
+  </si>
+  <si>
+    <t>ККТ</t>
+  </si>
+  <si>
+    <t>ЯТН</t>
+  </si>
+  <si>
+    <t>ТГТ</t>
   </si>
 </sst>
 </file>
@@ -414,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -742,6 +757,46 @@
         <v>2</v>
       </c>
     </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
